--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2440451.249868264</v>
+        <v>2438563.668351863</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>301.6509053416993</v>
+        <v>83.85112090809149</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -823,13 +823,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.0849044383765</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>41.65592056208439</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>108.31462518579</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>317.1993566855991</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>14.82811972447736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1139,10 +1139,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>13.15972490571613</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>337.455017953679</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>59.66385641544548</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>88.40546239686994</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.950364805198</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>139.1537278750031</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>115.4565483291795</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583893</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>271.7818641996879</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056508</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583893</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056511</v>
+        <v>143.3158222056512</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583893</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151912</v>
+        <v>36.74571320013135</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>60.27920353006288</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2843,7 +2843,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>91.8247191743589</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965511</v>
+        <v>60.34231996838668</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801193</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.217791394374</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348203</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897889</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571473</v>
+        <v>55.21598883571492</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523553</v>
+        <v>54.76109577523572</v>
       </c>
       <c r="S31" t="n">
-        <v>142.717553355046</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.344304429832</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700201</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952707</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080337</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604799</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789532</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3554,13 +3554,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
         <v>42.28735533463134</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>532.9757468194221</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="C2" t="n">
-        <v>228.2778626358874</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="D2" t="n">
-        <v>228.2778626358874</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4370,10 +4370,10 @@
         <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1309.714918859356</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>919.5755868835438</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,22 +4410,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.0596212327002</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="U4" t="n">
-        <v>458.7441094385871</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="V4" t="n">
-        <v>204.0596212327002</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="W4" t="n">
-        <v>204.0596212327002</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="X4" t="n">
-        <v>204.0596212327002</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="Y4" t="n">
-        <v>204.0596212327002</v>
+        <v>520.9725150767609</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1725.724578248621</v>
+        <v>1061.976198199964</v>
       </c>
       <c r="C5" t="n">
-        <v>1356.76206130821</v>
+        <v>1061.976198199964</v>
       </c>
       <c r="D5" t="n">
-        <v>1356.76206130821</v>
+        <v>1061.976198199964</v>
       </c>
       <c r="E5" t="n">
-        <v>1356.76206130821</v>
+        <v>1061.976198199964</v>
       </c>
       <c r="F5" t="n">
-        <v>945.7761565186022</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>527.8123484167891</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2112.324418312743</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X5" t="n">
-        <v>2112.324418312743</v>
+        <v>1838.715370239897</v>
       </c>
       <c r="Y5" t="n">
-        <v>2112.324418312743</v>
+        <v>1448.576038264086</v>
       </c>
     </row>
     <row r="6">
@@ -4644,16 +4644,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>184.027325963587</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C7" t="n">
-        <v>184.027325963587</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>184.027325963587</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>184.027325963587</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>184.027325963587</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>184.027325963587</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>713.1510854948409</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005476</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="W7" t="n">
-        <v>184.027325963587</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="X7" t="n">
-        <v>184.027325963587</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="Y7" t="n">
-        <v>184.027325963587</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1206.080506218543</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C8" t="n">
-        <v>837.1179892781316</v>
+        <v>825.2129885066836</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>466.9472898999331</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>81.15903730168884</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>2356.285436519557</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="X8" t="n">
-        <v>1982.819678258477</v>
+        <v>1970.914677487029</v>
       </c>
       <c r="Y8" t="n">
-        <v>1592.680346282665</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>184.2708856551153</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5030,46 +5030,46 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5115,25 +5115,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>1098.622710169755</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>809.4940713833128</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952638</v>
+        <v>554.8095831774259</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5291,37 +5291,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>359.169691290395</v>
+      </c>
+      <c r="C16" t="n">
+        <v>359.169691290395</v>
+      </c>
+      <c r="D16" t="n">
+        <v>359.169691290395</v>
+      </c>
+      <c r="E16" t="n">
+        <v>359.169691290395</v>
+      </c>
+      <c r="F16" t="n">
+        <v>359.1696912903951</v>
+      </c>
+      <c r="G16" t="n">
+        <v>359.1696912903951</v>
+      </c>
+      <c r="H16" t="n">
+        <v>208.7516828383384</v>
+      </c>
+      <c r="I16" t="n">
         <v>97.21709146028584</v>
       </c>
-      <c r="C16" t="n">
-        <v>97.21709146028581</v>
-      </c>
-      <c r="D16" t="n">
-        <v>97.21709146028581</v>
-      </c>
-      <c r="E16" t="n">
-        <v>97.21709146028581</v>
-      </c>
-      <c r="F16" t="n">
-        <v>97.21709146028581</v>
-      </c>
-      <c r="G16" t="n">
-        <v>97.21709146028581</v>
-      </c>
-      <c r="H16" t="n">
-        <v>97.21709146028581</v>
-      </c>
-      <c r="I16" t="n">
-        <v>97.21709146028581</v>
-      </c>
       <c r="J16" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688071</v>
@@ -5443,13 +5443,13 @@
         <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387593</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011508</v>
+        <v>986.002216560966</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952639</v>
+        <v>869.3794404708857</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>579.9622704339251</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>579.9622704339251</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>359.169691290395</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.09316900344</v>
@@ -5501,31 +5501,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5546,16 +5546,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5592,22 +5592,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241955</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471189</v>
@@ -5686,7 +5686,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5698,22 +5698,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
         <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765181</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706312</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336705</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
         <v>97.21709146028584</v>
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,40 +5735,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5838,7 +5838,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5847,10 +5847,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5896,28 +5896,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241955</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5944,7 +5944,7 @@
         <v>786.0822064765184</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706315</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W22" t="n">
         <v>241.9805482336709</v>
@@ -5966,19 +5966,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,10 +5987,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -5999,7 +5999,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6011,22 +6011,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>245.130185042679</v>
+      </c>
+      <c r="C25" t="n">
+        <v>245.130185042679</v>
+      </c>
+      <c r="D25" t="n">
+        <v>245.130185042679</v>
+      </c>
+      <c r="E25" t="n">
         <v>97.21709146028584</v>
       </c>
-      <c r="C25" t="n">
+      <c r="F25" t="n">
         <v>97.21709146028584</v>
       </c>
-      <c r="D25" t="n">
-        <v>97.21709146028581</v>
-      </c>
-      <c r="E25" t="n">
-        <v>97.21709146028581</v>
-      </c>
-      <c r="F25" t="n">
-        <v>97.21709146028581</v>
-      </c>
       <c r="G25" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471195</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011508</v>
+        <v>1238.013973327074</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>983.329485121187</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>693.9123150842264</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>465.9227641862091</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="26">
@@ -6203,67 +6203,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6303,28 +6303,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>736.1461909267686</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>675.2581065529677</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>675.2581065529677</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952639</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>736.1461909267686</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>736.1461909267686</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,19 +6452,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6476,37 +6476,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>637.6995017749879</v>
+        <v>439.532429954218</v>
       </c>
       <c r="C31" t="n">
-        <v>637.6995017749879</v>
+        <v>326.3571123076819</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440231</v>
+        <v>265.4052739557761</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430009</v>
+        <v>265.4052739557761</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264615</v>
+        <v>265.4052739557761</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276531</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569674</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864674</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933506</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667516</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962059</v>
+        <v>997.6688721962049</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353694</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899272</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096196</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167072</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662001</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737485</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818958</v>
+        <v>902.6804289818928</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652494</v>
+        <v>730.4517433652462</v>
       </c>
       <c r="Y31" t="n">
-        <v>730.4517433652494</v>
+        <v>565.4200295030869</v>
       </c>
     </row>
     <row r="32">
@@ -6677,22 +6677,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6704,13 +6704,13 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,13 +6765,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
@@ -6780,25 +6780,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1196.088769018223</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1833.271529962217</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649693</v>
@@ -6889,7 +6889,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
         <v>1304.027639859417</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6914,31 +6914,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6950,31 +6950,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229667</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504507</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7138,7 +7138,7 @@
         <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7169,16 +7169,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7187,19 +7187,19 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7248,25 +7248,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525403</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.686330625496</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7400,7 +7400,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7409,13 +7409,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7424,13 +7424,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7476,13 +7476,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7491,19 +7491,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525403</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254961</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860497</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O43" t="n">
         <v>1688.18649035013</v>
@@ -7594,7 +7594,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7734,7 +7734,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
         <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7831,25 +7831,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928334</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,7 +10431,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>277.6717966208058</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>133.1420986615193</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23668,10 +23668,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675362</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,25 +23701,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>82.39383318338619</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>136.6810949946486</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23905,7 +23905,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23944,19 +23944,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>14.7411341369031</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338631</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338605</v>
+        <v>82.39383318338594</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24379,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24412,13 +24412,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338615</v>
+        <v>249.491639198446</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24601,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>106.9676175685649</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,22 +24646,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>32.80400437902115</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700706</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>33.06989642126862</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801211</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437419</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897907</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-13</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>822996.3863585982</v>
+        <v>822996.3863585984</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>822996.3863585982</v>
+        <v>822996.3863585984</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>855372.195454099</v>
+        <v>855372.1954540989</v>
       </c>
     </row>
     <row r="12">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516048</v>
       </c>
       <c r="E2" t="n">
-        <v>566992.1366196775</v>
+        <v>566992.1366196778</v>
       </c>
       <c r="F2" t="n">
         <v>566992.1366196777</v>
@@ -26329,31 +26329,31 @@
         <v>566992.1366196777</v>
       </c>
       <c r="H2" t="n">
-        <v>566992.1366196778</v>
+        <v>566992.1366196777</v>
       </c>
       <c r="I2" t="n">
         <v>566992.1366196777</v>
       </c>
       <c r="J2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.1366196777</v>
       </c>
       <c r="K2" t="n">
-        <v>589892.099150641</v>
+        <v>589892.0991506415</v>
       </c>
       <c r="L2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516044</v>
       </c>
       <c r="M2" t="n">
-        <v>595255.2831516046</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="N2" t="n">
-        <v>595255.2831516046</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="O2" t="n">
-        <v>595255.2831516045</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="P2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516047</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.42310613632435e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284579</v>
+        <v>44162.60530284565</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086672</v>
+        <v>10342.90680086688</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284567</v>
+        <v>44162.60530284565</v>
       </c>
     </row>
     <row r="4">
@@ -26427,19 +26427,19 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687068</v>
+        <v>22174.60758687076</v>
       </c>
       <c r="G4" t="n">
+        <v>22174.60758687072</v>
+      </c>
+      <c r="H4" t="n">
         <v>22174.60758687071</v>
-      </c>
-      <c r="H4" t="n">
-        <v>22174.60758687073</v>
       </c>
       <c r="I4" t="n">
         <v>22174.6075868707</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687069</v>
+        <v>22174.60758687068</v>
       </c>
       <c r="K4" t="n">
         <v>40339.23010106725</v>
@@ -26448,13 +26448,13 @@
         <v>44593.39482819119</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819116</v>
+        <v>44593.39482819122</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819114</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819117</v>
+        <v>44593.39482819118</v>
       </c>
       <c r="P4" t="n">
         <v>44593.39482819119</v>
@@ -26473,13 +26473,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26488,22 +26488,22 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022282</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-243204.5419128733</v>
+        <v>-243204.5419128732</v>
       </c>
       <c r="C6" t="n">
+        <v>346763.3373016708</v>
+      </c>
+      <c r="D6" t="n">
         <v>346763.337301671</v>
       </c>
-      <c r="D6" t="n">
-        <v>346763.3373016709</v>
-      </c>
       <c r="E6" t="n">
-        <v>-72329.83339280607</v>
+        <v>-72427.29251877764</v>
       </c>
       <c r="F6" t="n">
-        <v>452830.2030840904</v>
+        <v>452732.7439581181</v>
       </c>
       <c r="G6" t="n">
-        <v>452830.2030840904</v>
+        <v>452732.7439581182</v>
       </c>
       <c r="H6" t="n">
-        <v>452830.2030840905</v>
+        <v>452732.7439581182</v>
       </c>
       <c r="I6" t="n">
-        <v>452830.2030840904</v>
+        <v>452732.7439581178</v>
       </c>
       <c r="J6" t="n">
-        <v>276406.9838914975</v>
+        <v>276309.5247655254</v>
       </c>
       <c r="K6" t="n">
-        <v>408762.0552165051</v>
+        <v>408743.5614785714</v>
       </c>
       <c r="L6" t="n">
-        <v>442603.8757025216</v>
+        <v>442603.875702521</v>
       </c>
       <c r="M6" t="n">
-        <v>318145.7672695507</v>
+        <v>318145.7672695512</v>
       </c>
       <c r="N6" t="n">
-        <v>452946.782503388</v>
+        <v>452946.7825033882</v>
       </c>
       <c r="O6" t="n">
-        <v>452946.7825033879</v>
+        <v>452946.7825033884</v>
       </c>
       <c r="P6" t="n">
         <v>408784.1772005425</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964064</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>68.13189012964064</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964062</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26738,46 +26738,46 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541006</v>
+      </c>
+      <c r="J3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="F3" t="n">
+      <c r="K3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="G3" t="n">
+      <c r="L3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="H3" t="n">
+      <c r="M3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="I3" t="n">
+      <c r="N3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="J3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541004</v>
-      </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010834</v>
+        <v>12.9286335010836</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>63.62198642930821</v>
+        <v>281.421770862916</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27397,7 +27397,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27543,13 +27543,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27585,16 +27585,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>7.060634511642377</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>244.6259536798933</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>298.5614205559215</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>6.723416078758021</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,25 +27777,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>27.38738814000484</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>131.8370722556805</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,10 +27831,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27859,10 +27859,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>393.7163208359953</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27913,7 +27913,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>11.78595076373398</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831824</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28065,13 +28065,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>157.4983735401877</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-6.514180432117442e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30274,13 +30274,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31929,10 +31929,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32166,10 +32166,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,43 +32783,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33968,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34132,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34205,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34296,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556551</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35811,19 +35811,19 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556551</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,22 +36206,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556551</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36689,13 +36689,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412279</v>
+        <v>67.7110267941226</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584678</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084858</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075298</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.480134434161</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491601</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.586857240358</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043202</v>
+        <v>94.42895660043183</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>526.9295015768301</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37163,13 +37163,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37309,25 +37309,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,13 +37622,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37637,7 +37637,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,13 +37859,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37874,7 +37874,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38035,10 +38035,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,16 +38102,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
